--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>5.896808312953783</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>4.060401000000002</v>
+        <v>10.70171490310616</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>2.316462327490609</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>1.128152055180998</v>
+        <v>-12.90434384910116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>7.441962824572235</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>0.573838264542692</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>10.14224506046018</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>0.1715429114845346</v>
+        <v>9.162319139560072</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.4016064257028162</v>
+        <v>11.00161740362515</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>6.277541464866987</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.49817184092531</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>1.609625625599986</v>
+        <v>9.926356894615008</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.8004663283405655</v>
+        <v>4.440675708811326</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>4.374121846738821</v>
+        <v>0.02592873473603596</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>6.535114773304773</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>4.570969650847134</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>3.238605209600021</v>
+        <v>6.670100100023779</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>5.253783907501819</v>
+        <v>6.166830030198267</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>7.034363786234055</v>
+        <v>5.009734572843771</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>5.12051970717502</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>4.302678588068853</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>2.421686529599998</v>
+        <v>6.878526556821973</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>3.522405026196918</v>
+        <v>2.204591531842581</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.7487131443150719</v>
+        <v>-4.726949348040732</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>3.65682115264816</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.132041294372965</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.80775480839499</v>
+        <v>4.783388268072009</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.656063945467268</v>
+        <v>1.09689030557385</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>2.791140475760812</v>
+        <v>-4.442195584720931</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>2.943878639034381</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>3.822017844547454</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>4.03368232667769</v>
+        <v>5.440628060653574</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.06235252733802</v>
+        <v>1.600060471414833</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>5.225039411582544</v>
+        <v>-2.949819494134909</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.172679597477866</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>2.967306691379146</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.814234591457176</v>
+        <v>0.7846309372076199</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>3.05427116350534</v>
+        <v>1.651055586686678</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>2.05032247531709</v>
+        <v>2.833734372666652</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>2.961845079861303</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.306868092497383</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>2.422137564860316</v>
+        <v>2.521390070591267</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.305809238174006</v>
+        <v>1.99440460461342</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.420751168230195</v>
+        <v>0.9898525518331924</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.508469427909898</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.54711212449874</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>2.625448224354798</v>
+        <v>2.540874511056623</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.509111342826809</v>
+        <v>2.613530175870626</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.434773703516169</v>
+        <v>3.313641510414356</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>3.523703831572056</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>3.306274395782283</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>3.814087998533955</v>
+        <v>3.025650759929999</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.247997668789648</v>
+        <v>1.274170701304334</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.659175913415735</v>
+        <v>-0.2174071002483902</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.32262856882326</v>
+        <v>3.696331036365752</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.03065287894977</v>
+        <v>6.233648892987009</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>3.296731496509198</v>
+        <v>1.207340632843712</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.696128966951151</v>
+        <v>1.091965090482971</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.178605266817589</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>2.926968792950002</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>2.421686529599998</v>
+        <v>0.6761281928490348</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.846663510492387</v>
+        <v>1.37810805366898</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.209738691971808</v>
+        <v>1.937142119249913</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.809677027338608</v>
+        <v>-0.973865931199458</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.027114262705876</v>
+        <v>-4.327930935899992</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.861315725866587</v>
+        <v>3.031664248068777</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.69086075181646</v>
+        <v>3.470008002361924</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>3.047037961814492</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.558837984273898</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>2.620390220543167</v>
+        <v>3.638425237116749</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.638125075374576</v>
+        <v>3.770384266127369</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.830905105114589</v>
+        <v>4.270473305078393</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>1.790319754067715</v>
+        <v>1.725130460355095</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.284632217569027</v>
+        <v>-1.194610791900008</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>1.790319754067715</v>
+        <v>-0.4891791466461126</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.282145115263212</v>
+        <v>1.831864451486243</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-0.2228847697281378</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>2.134317106430017</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>2.832246610071487</v>
+        <v>2.646620531497335</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.134211868526203</v>
+        <v>2.288807135633641</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.831720744488786</v>
+        <v>2.832246610071509</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.339531676162721</v>
+        <v>-0.5115004854862049</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>5.523700689788247</v>
+        <v>2.23509962177757</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.339531676162721</v>
+        <v>-0.7941560676977599</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.520676659348989</v>
+        <v>4.94197512951382</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>-1.165854108406617</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>5.358261692523802</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>5.709386381624437</v>
+        <v>4.306257314632855</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>4.965791828584987</v>
+        <v>4.061815910726119</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.779837101901995</v>
+        <v>5.709386381624437</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>4.834496776263886</v>
+        <v>0.9727820482463123</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.123500950925328</v>
+        <v>2.866869504079239</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.834496776263886</v>
+        <v>2.34069710769782</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.649384183175552</v>
+        <v>1.687287030004092</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>2.501311189006916</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>3.085566963357711</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>2.56445306171762</v>
+        <v>3.687525625406263</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.759733428815392</v>
+        <v>2.830392552592231</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.9619141332750658</v>
+        <v>2.56445306171762</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.798216547494237</v>
+        <v>2.122313752051319</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.452546378737241</v>
+        <v>0.8382457967197388</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>2.798216547494237</v>
+        <v>0.9259311313598806</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.316395017816729</v>
+        <v>0.9881529557394186</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.6753076481029074</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>1.810742486615213</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>2.559682772914296</v>
+        <v>0.5720316833079497</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.554683554468195</v>
+        <v>1.488849104696177</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.283368189749212</v>
+        <v>2.559682772914296</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.530879676868468</v>
+        <v>-0.1133034947815914</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.9765170511687904</v>
+        <v>0.8323378752418176</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.530879676868468</v>
+        <v>1.935025917091848</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>2.200061717688317</v>
+        <v>1.300166298184058</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>2.039329803030121</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>2.032378948526548</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>2.333011795730777</v>
+        <v>2.838786065810939</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.010045985681796</v>
+        <v>1.774603592091717</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>2.221738879811253</v>
+        <v>2.333011795730777</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.060859685319461</v>
+        <v>3.161594928268019</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.880880443834966</v>
+        <v>2.57979941834241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.43119486791763</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>3.197192111131564</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.4891791466461126</v>
+        <v>-0.5413737111579442</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>1.831864451486243</v>
+        <v>1.135957076337268</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>2.646620531497335</v>
+        <v>5.441727066293178</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.288807135633641</v>
+        <v>2.117990494347866</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.832246610071509</v>
+        <v>2.377383675146461</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.5115004854862049</v>
+        <v>-2.22169520243084</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.23509962177757</v>
+        <v>-6.324519326136446</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.7941560676977599</v>
+        <v>-0.847546909834207</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.94197512951382</v>
+        <v>4.214126463489443</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>4.306257314632855</v>
+        <v>2.8273245050219</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>4.061815910726119</v>
+        <v>3.946810400327672</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>5.709386381624437</v>
+        <v>5.401597835967076</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.9727820482463123</v>
+        <v>-1.290816600413758</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.866869504079239</v>
+        <v>-8.277043919141548</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.34069710769782</v>
+        <v>2.440625733302504</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.687287030004092</v>
+        <v>2.977284542118408</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>3.687525625406263</v>
+        <v>3.766995476534918</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.830392552592231</v>
+        <v>2.937285310545068</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.56445306171762</v>
+        <v>2.847433398110777</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.122313752051319</v>
+        <v>2.066568225344967</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.8382457967197388</v>
+        <v>0.5638104621660478</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.9259311313598806</v>
+        <v>0.9420042531300021</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.9881529557394186</v>
+        <v>1.197522477793767</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.5720316833079497</v>
+        <v>0.5616045648562995</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.488849104696177</v>
+        <v>1.648295078144391</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.559682772914296</v>
+        <v>2.987477902237012</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.1133034947815914</v>
+        <v>-1.187784794999047</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.8323378752418176</v>
+        <v>-4.510558235413276</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.935025917091848</v>
+        <v>2.025083876303735</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.300166298184058</v>
+        <v>2.460035583527875</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>2.838786065810939</v>
+        <v>2.644471404309057</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.774603592091717</v>
+        <v>0.631520836937316</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>2.333011795730777</v>
+        <v>-0.6983252104540982</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>3.161594928268019</v>
+        <v>4.306165070258094</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.57979941834241</v>
+        <v>8.305446157974039</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.43119486791763</v>
+        <v>2.54162050343838</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>3.197192111131564</v>
+        <v>4.635607024939148</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>5.896808312953783</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>10.70171490310616</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>2.316462327490609</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-12.90434384910116</v>
+        <v>-12.90434384910118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,9 +447,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>7.441962824572235</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>6.277541464866987</v>
+        <v>6.277541464866965</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>9.926356894615008</v>
+        <v>9.926356894614985</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +496,7 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>4.440675708811326</v>
+        <v>4.440675708811348</v>
       </c>
       <c r="D7">
         <v>2011</v>
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>6.535114773304773</v>
+        <v>6.535114773304795</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -582,7 +570,7 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-4.726949348040732</v>
+        <v>-4.72694934804071</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -616,7 +604,7 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-4.442195584720931</v>
+        <v>-4.442195584720943</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -644,13 +632,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.600060471414833</v>
+        <v>1.600060471414855</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-2.949819494134909</v>
+        <v>-2.94981949413492</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -684,7 +672,7 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>2.833734372666652</v>
+        <v>2.83373437266663</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -718,7 +706,7 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.9898525518331924</v>
+        <v>0.9898525518332146</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +717,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.508469427909898</v>
+        <v>2.508469427909921</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>2.540874511056623</v>
+        <v>2.540874511056646</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.613530175870626</v>
+        <v>2.613530175870649</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -769,7 +757,7 @@
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>3.025650759929999</v>
+        <v>3.025650759930021</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -786,7 +774,7 @@
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>-0.2174071002483902</v>
+        <v>-0.217407100248368</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -803,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>6.233648892987009</v>
+        <v>6.233648892986987</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.207340632843712</v>
+        <v>1.207340632843734</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.091965090482971</v>
+        <v>1.091965090482994</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>0.6761281928490348</v>
+        <v>0.676128192849057</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -865,7 +853,7 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.973865931199458</v>
+        <v>-0.9738659311994247</v>
       </c>
       <c r="D28">
         <v>2020</v>
@@ -882,7 +870,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.031664248068777</v>
+        <v>3.031664248068799</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -899,7 +887,7 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>3.047037961814492</v>
+        <v>3.047037961814514</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -916,7 +904,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>3.770384266127369</v>
+        <v>3.770384266127391</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>1.725130460355095</v>
+        <v>1.725130460355073</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-1.194610791900008</v>
+        <v>-1.194610791899997</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +938,7 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.5413737111579442</v>
+        <v>-0.5413737111579553</v>
       </c>
       <c r="D33">
         <v>2021</v>
@@ -967,7 +955,7 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-0.2228847697281378</v>
+        <v>-0.22288476972816</v>
       </c>
       <c r="D34">
         <v>2021</v>
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-2.22169520243084</v>
+        <v>-2.221695202430862</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-6.324519326136446</v>
+        <v>-6.324519326136457</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,7 +1006,7 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.847546909834207</v>
+        <v>-0.8475469098342181</v>
       </c>
       <c r="D37">
         <v>2022</v>
@@ -1035,7 +1023,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>-1.165854108406617</v>
+        <v>-1.165854108406639</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1052,13 +1040,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.946810400327672</v>
+        <v>3.946810400327694</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>5.401597835967076</v>
+        <v>5.401597835967098</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1057,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.290816600413758</v>
+        <v>-1.290816600413769</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-8.277043919141548</v>
+        <v>-8.277043919141525</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1092,7 +1080,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.977284542118408</v>
+        <v>2.97728454211843</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.937285310545068</v>
+        <v>2.93728531054509</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.847433398110777</v>
+        <v>2.847433398110755</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,7 +1125,7 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.066568225344967</v>
+        <v>2.066568225344989</v>
       </c>
       <c r="D44">
         <v>2024</v>
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.9420042531300021</v>
+        <v>0.9420042531300243</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.197522477793767</v>
+        <v>1.197522477793744</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1188,13 +1176,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.648295078144391</v>
+        <v>1.648295078144368</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.987477902237012</v>
+        <v>2.98747790223699</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,7 +1193,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.187784794999047</v>
+        <v>-1.187784794999081</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>2.025083876303735</v>
+        <v>2.025083876303713</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>2.460035583527875</v>
+        <v>2.460035583527898</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>2.039329803030121</v>
+        <v>2.039329803030099</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1256,13 +1244,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.631520836937316</v>
+        <v>0.6315208369373382</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.6983252104540982</v>
+        <v>-0.6983252104541204</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1279,7 +1267,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>8.305446157974039</v>
+        <v>8.305446157974018</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1278,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.54162050343838</v>
+        <v>2.541620503438358</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>4.635607024939148</v>
+        <v>4.63560702493917</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>4.63560702493917</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.46481303148316</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>3.633434696013671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
